--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512859.954043257</v>
+        <v>1457908.064759161</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013171</v>
+        <v>408938.3872013176</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7836983.217301029</v>
+        <v>7836983.217301028</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>106.0500020850141</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>360.1112054626967</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>135.3196301091069</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>3.329915919761908</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.376832222376811</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>256.8815643081456</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
@@ -1657,13 +1657,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>214.0920521918442</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>99.76999145537587</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>190.6404509924601</v>
       </c>
     </row>
     <row r="16">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.376832222376811</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>335.7005644641528</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.52870137459207</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.0353723969745</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>90.22595344863068</v>
+        <v>21.39312671732427</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>211.8662302997449</v>
@@ -1982,10 +1982,10 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>73.3534034990646</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>7.226885210985838</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>57.74098938399189</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>185.354057811033</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>3.329915919761908</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.87081052591377</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
@@ -2225,7 +2225,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.226885210985619</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>123.1434003800101</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>98.43984862294312</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>140.2491341557716</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>29.53304690243302</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>148.8995851529775</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>137.4545982671965</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>123.14340038001</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>24.9920672441849</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.110479580294033</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2639,22 +2639,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>123.0787680142119</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>64.61804533705269</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>7.226885210985831</v>
       </c>
       <c r="V28" t="n">
-        <v>7.226885210985718</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>290.3107070893353</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>179.0602248651138</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>210.3638192823643</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>66.92647018197444</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>7.180248591592975</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>129.4825785166958</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>73.3534034990646</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>156.0556935949463</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>249.2346684485662</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>139.8851963399937</v>
       </c>
       <c r="C33" t="n">
-        <v>3.329915919761465</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3164,7 +3164,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>73.3534034990645</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>123.1434003800101</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>137.6408058395744</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>87.63319326612977</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>90.22595344863068</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.72980802168644</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.93456886964954</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>112.7443747060711</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>75.39509184191978</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.329915919761465</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1773944157285</v>
@@ -3650,7 +3650,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>25.41851906084996</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.93456886964948</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>152.1044229849743</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>269.1805153475577</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.97045721923566</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.329915919761465</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>93.55157885292907</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
         <v>177.283526739121</v>
@@ -3875,7 +3875,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3884,7 +3884,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.226885210985788</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>100.2381914993196</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>98.43984862294333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>50.00345159691249</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>216.1696207715982</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>76.5351950996145</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>8.916258666856967</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>328.8187581956188</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C11" t="n">
-        <v>328.8187581956188</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D11" t="n">
-        <v>328.8187581956188</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E11" t="n">
-        <v>328.8187581956188</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F11" t="n">
-        <v>328.8187581956188</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
-        <v>328.8187581956188</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193747</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
@@ -5068,25 +5068,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S11" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T11" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U11" t="n">
-        <v>1357.666194286149</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V11" t="n">
-        <v>1033.545200741551</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W11" t="n">
-        <v>692.2356413215846</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="X11" t="n">
-        <v>328.8187581956188</v>
+        <v>819.6780515710161</v>
       </c>
       <c r="Y11" t="n">
-        <v>328.8187581956188</v>
+        <v>455.9293591844538</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.6782042885481</v>
+        <v>1069.118384851047</v>
       </c>
       <c r="C12" t="n">
-        <v>37.6782042885481</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D12" t="n">
-        <v>34.31465285444516</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E12" t="n">
-        <v>34.31465285444516</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444516</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025869</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K12" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443596</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207055</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S12" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025987</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062328</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365241</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="X12" t="n">
-        <v>263.3188973532204</v>
+        <v>1205.804879910751</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.6782042885481</v>
+        <v>1205.804879910751</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514573</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N13" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800221</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809701</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>260.9755581809701</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S13" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T13" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U13" t="n">
-        <v>260.9755581809701</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>978.9465481215775</v>
+        <v>1224.080138708901</v>
       </c>
       <c r="C14" t="n">
-        <v>978.9465481215775</v>
+        <v>1224.080138708901</v>
       </c>
       <c r="D14" t="n">
-        <v>978.9465481215775</v>
+        <v>1224.080138708901</v>
       </c>
       <c r="E14" t="n">
-        <v>978.9465481215775</v>
+        <v>1224.080138708901</v>
       </c>
       <c r="F14" t="n">
-        <v>978.9465481215775</v>
+        <v>816.8081693755544</v>
       </c>
       <c r="G14" t="n">
         <v>557.3318417915689</v>
@@ -5278,16 +5278,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157783</v>
@@ -5305,25 +5305,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U14" t="n">
-        <v>978.9465481215775</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V14" t="n">
-        <v>978.9465481215775</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W14" t="n">
-        <v>978.9465481215775</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X14" t="n">
-        <v>978.9465481215775</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y14" t="n">
-        <v>978.9465481215775</v>
+        <v>1224.080138708901</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>115.9747045751594</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="C15" t="n">
-        <v>115.9747045751594</v>
+        <v>798.0460588632965</v>
       </c>
       <c r="D15" t="n">
-        <v>115.9747045751594</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E15" t="n">
-        <v>115.9747045751594</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F15" t="n">
-        <v>115.9747045751594</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G15" t="n">
-        <v>115.9747045751594</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K15" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L15" t="n">
-        <v>478.3196054885461</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M15" t="n">
-        <v>853.2112150416076</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N15" t="n">
-        <v>1173.359244302914</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O15" t="n">
-        <v>1486.492278349808</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P15" t="n">
         <v>1715.732642722258</v>
@@ -5384,25 +5384,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S15" t="n">
-        <v>1527.181098293728</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T15" t="n">
-        <v>1313.174805061663</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U15" t="n">
-        <v>1073.60167938921</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="V15" t="n">
-        <v>830.521961292844</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="W15" t="n">
-        <v>561.1233920231354</v>
+        <v>1358.560298170864</v>
       </c>
       <c r="X15" t="n">
-        <v>341.6153976398317</v>
+        <v>1358.560298170864</v>
       </c>
       <c r="Y15" t="n">
-        <v>115.9747045751594</v>
+        <v>1165.994186057268</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
@@ -5457,31 +5457,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S16" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T16" t="n">
-        <v>260.9755581809701</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="U16" t="n">
-        <v>260.9755581809701</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V16" t="n">
-        <v>260.9755581809701</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W16" t="n">
-        <v>260.9755581809701</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X16" t="n">
-        <v>260.9755581809701</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9755581809701</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1198.835626341038</v>
+        <v>1121.862101083126</v>
       </c>
       <c r="C17" t="n">
-        <v>1198.835626341038</v>
+        <v>782.7706218264057</v>
       </c>
       <c r="D17" t="n">
-        <v>1198.835626341038</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E17" t="n">
-        <v>1198.835626341038</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F17" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
         <v>34.31465285444516</v>
@@ -5515,13 +5515,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M17" t="n">
         <v>856.6460009292779</v>
@@ -5539,28 +5539,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1669.744055475196</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1669.744055475196</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1451.396608560204</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1198.835626341038</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V17" t="n">
-        <v>1198.835626341038</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W17" t="n">
-        <v>1198.835626341038</v>
+        <v>1121.862101083126</v>
       </c>
       <c r="X17" t="n">
-        <v>1198.835626341038</v>
+        <v>1121.862101083126</v>
       </c>
       <c r="Y17" t="n">
-        <v>1198.835626341038</v>
+        <v>1121.862101083126</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125.4519795702337</v>
+        <v>550.6949081611431</v>
       </c>
       <c r="C18" t="n">
-        <v>34.31465285444516</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D18" t="n">
-        <v>34.31465285444516</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E18" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F18" t="n">
         <v>34.31465285444516</v>
@@ -5597,49 +5597,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>34.31465285444516</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L18" t="n">
-        <v>304.6946924676439</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5863020207055</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520717</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S18" t="n">
-        <v>1536.658373288803</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T18" t="n">
-        <v>1322.652080056737</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U18" t="n">
-        <v>1083.078954384284</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V18" t="n">
-        <v>839.9992362879184</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="W18" t="n">
-        <v>570.6006670182097</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="X18" t="n">
-        <v>351.0926726349061</v>
+        <v>954.8714541527506</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.4519795702337</v>
+        <v>729.2307610880782</v>
       </c>
     </row>
     <row r="19">
@@ -5700,19 +5700,19 @@
         <v>334.8576753800221</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4089998231973</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="X19" t="n">
         <v>34.31465285444516</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>809.0541084987435</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="C20" t="n">
-        <v>809.0541084987435</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="D20" t="n">
-        <v>467.8701088601301</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E20" t="n">
-        <v>92.63888455544708</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F20" t="n">
-        <v>92.63888455544708</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
-        <v>92.63888455544708</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>92.63888455544708</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602973</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K20" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193754</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1195.201146295158</v>
+        <v>1528.506321701012</v>
       </c>
       <c r="V20" t="n">
-        <v>1195.201146295158</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="W20" t="n">
-        <v>1195.201146295158</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="X20" t="n">
-        <v>1195.201146295158</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="Y20" t="n">
-        <v>809.0541084987435</v>
+        <v>1204.385328156414</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37.6782042885481</v>
+        <v>650.2667613373724</v>
       </c>
       <c r="C21" t="n">
-        <v>37.6782042885481</v>
+        <v>650.2667613373724</v>
       </c>
       <c r="D21" t="n">
-        <v>37.6782042885481</v>
+        <v>650.2667613373724</v>
       </c>
       <c r="E21" t="n">
-        <v>37.6782042885481</v>
+        <v>476.7035574587868</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444516</v>
+        <v>316.2758411760309</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444516</v>
+        <v>166.8068075992708</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444516</v>
+        <v>47.31547156748937</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K21" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944634</v>
       </c>
       <c r="L21" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M21" t="n">
-        <v>853.2112150416076</v>
+        <v>770.125479802903</v>
       </c>
       <c r="N21" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O21" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P21" t="n">
         <v>1715.732642722258</v>
@@ -5855,28 +5855,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.878304775052</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U21" t="n">
-        <v>995.3051791025987</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V21" t="n">
-        <v>752.2254610062328</v>
+        <v>1145.306023671753</v>
       </c>
       <c r="W21" t="n">
-        <v>482.8268917365241</v>
+        <v>875.9074544020447</v>
       </c>
       <c r="X21" t="n">
-        <v>263.3188973532204</v>
+        <v>875.9074544020447</v>
       </c>
       <c r="Y21" t="n">
-        <v>37.6782042885481</v>
+        <v>650.2667613373724</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="G22" t="n">
         <v>34.31465285444516</v>
@@ -5913,49 +5913,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R22" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S22" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T22" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="U22" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="W22" t="n">
-        <v>158.7019259655665</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>41.61453690594578</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1574.066850645721</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C23" t="n">
-        <v>1574.066850645721</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D23" t="n">
-        <v>1574.066850645721</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E23" t="n">
-        <v>1198.835626341038</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>791.5636570076908</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5989,16 +5989,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602939</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193745</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157782</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722258</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="T23" t="n">
-        <v>1574.066850645721</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="U23" t="n">
-        <v>1574.066850645721</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="V23" t="n">
-        <v>1574.066850645721</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="W23" t="n">
-        <v>1574.066850645721</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="X23" t="n">
-        <v>1574.066850645721</v>
+        <v>1616.298452194033</v>
       </c>
       <c r="Y23" t="n">
-        <v>1574.066850645721</v>
+        <v>1616.298452194033</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>547.6059671000548</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="C24" t="n">
-        <v>547.6059671000548</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="D24" t="n">
-        <v>547.6059671000548</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>374.0427632214693</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>213.6150469387134</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
-        <v>64.14601336195327</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>64.14601336195327</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
         <v>34.31465285444516</v>
@@ -6074,13 +6074,13 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
-        <v>395.2338702498412</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M24" t="n">
-        <v>770.1254798029028</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N24" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O24" t="n">
         <v>1486.492278349808</v>
@@ -6104,16 +6104,16 @@
         <v>1262.153223817739</v>
       </c>
       <c r="V24" t="n">
-        <v>1262.153223817739</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W24" t="n">
-        <v>992.7546545480308</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="X24" t="n">
-        <v>773.2466601647271</v>
+        <v>599.2713150850209</v>
       </c>
       <c r="Y24" t="n">
-        <v>547.6059671000548</v>
+        <v>373.6306220203485</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H25" t="n">
         <v>34.31465285444516</v>
@@ -6150,49 +6150,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R25" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S25" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T25" t="n">
-        <v>158.7019259655664</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>375.4986524930586</v>
+        <v>1224.080138708901</v>
       </c>
       <c r="C26" t="n">
-        <v>375.4986524930586</v>
+        <v>1224.080138708901</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>1224.080138708901</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H26" t="n">
         <v>34.31465285444516</v>
@@ -6226,25 +6226,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
         <v>1715.732642722258</v>
@@ -6253,25 +6253,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T26" t="n">
-        <v>1404.346088583589</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U26" t="n">
-        <v>1404.346088583589</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V26" t="n">
-        <v>1080.225095038991</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W26" t="n">
-        <v>738.9155356190245</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X26" t="n">
-        <v>375.4986524930586</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.4986524930586</v>
+        <v>1224.080138708901</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>348.0489150146248</v>
+        <v>854.4700854022194</v>
       </c>
       <c r="C27" t="n">
-        <v>158.6366407475885</v>
+        <v>665.0578111351831</v>
       </c>
       <c r="D27" t="n">
-        <v>158.6366407475885</v>
+        <v>504.2776948962148</v>
       </c>
       <c r="E27" t="n">
-        <v>158.6366407475885</v>
+        <v>330.7144910176293</v>
       </c>
       <c r="F27" t="n">
-        <v>158.6366407475885</v>
+        <v>330.7144910176293</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>181.2454574408692</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K27" t="n">
-        <v>195.4144734331678</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L27" t="n">
-        <v>304.6946924676441</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5863020207056</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N27" t="n">
         <v>1082.820066520717</v>
@@ -6323,34 +6323,34 @@
         <v>1395.953100567611</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775051</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025982</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062323</v>
+        <v>1258.646631393827</v>
       </c>
       <c r="W27" t="n">
-        <v>752.2254610062323</v>
+        <v>1258.646631393827</v>
       </c>
       <c r="X27" t="n">
-        <v>752.2254610062323</v>
+        <v>1258.646631393827</v>
       </c>
       <c r="Y27" t="n">
-        <v>526.5847679415599</v>
+        <v>1033.005938329155</v>
       </c>
     </row>
     <row r="28">
@@ -6387,37 +6387,37 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V28" t="n">
         <v>327.5577913285213</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>982.7124399493341</v>
+        <v>215.1835668596106</v>
       </c>
       <c r="C29" t="n">
-        <v>628.9695133016787</v>
+        <v>215.1835668596106</v>
       </c>
       <c r="D29" t="n">
-        <v>628.9695133016787</v>
+        <v>215.1835668596106</v>
       </c>
       <c r="E29" t="n">
-        <v>628.9695133016787</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
         <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505314</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1413.548593210148</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1195.201146295157</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U29" t="n">
-        <v>982.7124399493341</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="V29" t="n">
-        <v>982.7124399493341</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="W29" t="n">
-        <v>982.7124399493341</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="X29" t="n">
-        <v>982.7124399493341</v>
+        <v>601.3306046560247</v>
       </c>
       <c r="Y29" t="n">
-        <v>982.7124399493341</v>
+        <v>215.1835668596106</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>436.2604681053064</v>
+        <v>516.7814670318485</v>
       </c>
       <c r="C30" t="n">
-        <v>436.2604681053064</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="D30" t="n">
-        <v>275.4803518663382</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="E30" t="n">
-        <v>101.9171479877527</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F30" t="n">
-        <v>101.9171479877527</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G30" t="n">
-        <v>101.9171479877527</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H30" t="n">
-        <v>101.9171479877527</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444515</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K30" t="n">
-        <v>34.31465285444515</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>317.2197849098233</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M30" t="n">
-        <v>692.1113944628848</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.345158962896</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O30" t="n">
-        <v>1408.47819300979</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P30" t="n">
-        <v>1637.71855738224</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1413.952574208506</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U30" t="n">
-        <v>1174.379448536053</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V30" t="n">
-        <v>931.2997304396874</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W30" t="n">
-        <v>661.9011611699788</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="X30" t="n">
-        <v>661.9011611699788</v>
+        <v>742.4221600965209</v>
       </c>
       <c r="Y30" t="n">
-        <v>436.2604681053064</v>
+        <v>516.7814670318485</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="T31" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="U31" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="V31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.6975439683318</v>
+        <v>974.4498602247442</v>
       </c>
       <c r="C32" t="n">
-        <v>221.6975439683318</v>
+        <v>974.4498602247442</v>
       </c>
       <c r="D32" t="n">
-        <v>221.6975439683318</v>
+        <v>974.4498602247442</v>
       </c>
       <c r="E32" t="n">
-        <v>221.6975439683318</v>
+        <v>599.2186359200612</v>
       </c>
       <c r="F32" t="n">
-        <v>221.6975439683318</v>
+        <v>191.9466665867142</v>
       </c>
       <c r="G32" t="n">
-        <v>221.6975439683318</v>
+        <v>191.9466665867142</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602962</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292788</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T32" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U32" t="n">
-        <v>1160.987610990983</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V32" t="n">
-        <v>836.8666174463846</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="W32" t="n">
-        <v>585.1144270942975</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="X32" t="n">
-        <v>221.6975439683318</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.6975439683318</v>
+        <v>1352.315759596293</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.67820428854765</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889813</v>
+        <v>112.3287381944638</v>
       </c>
       <c r="L33" t="n">
-        <v>498.4142537443595</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M33" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025982</v>
+        <v>1322.652080056738</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062323</v>
+        <v>1079.572361960372</v>
       </c>
       <c r="W33" t="n">
-        <v>482.8268917365236</v>
+        <v>810.1737926906632</v>
       </c>
       <c r="X33" t="n">
-        <v>263.31889735322</v>
+        <v>590.6657983073595</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.67820428854765</v>
+        <v>365.0251052426872</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="C34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="D34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444516</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L34" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="U34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="X34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4089998231972</v>
+        <v>158.7019259655665</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1337.866743350709</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C35" t="n">
-        <v>1198.835626341038</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D35" t="n">
-        <v>1198.835626341038</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E35" t="n">
-        <v>1198.835626341038</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F35" t="n">
-        <v>791.5636570076908</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
         <v>34.31465285444516</v>
@@ -6937,25 +6937,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602939</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193746</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
@@ -6964,25 +6964,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="X35" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.214265685764</v>
       </c>
       <c r="Y35" t="n">
-        <v>1715.732642722258</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1069.118384851047</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="C36" t="n">
-        <v>879.7061105840106</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D36" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E36" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F36" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
@@ -7019,13 +7019,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944634</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
         <v>395.2338702498415</v>
       </c>
       <c r="M36" t="n">
-        <v>770.125479802903</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N36" t="n">
         <v>1173.359244302914</v>
@@ -7040,28 +7040,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1652.36920027611</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1473.294930842654</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T36" t="n">
-        <v>1473.294930842654</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U36" t="n">
-        <v>1473.294930842654</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V36" t="n">
-        <v>1473.294930842654</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W36" t="n">
-        <v>1473.294930842654</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X36" t="n">
-        <v>1473.294930842654</v>
+        <v>351.0926726349061</v>
       </c>
       <c r="Y36" t="n">
-        <v>1247.654237777982</v>
+        <v>125.4519795702337</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1698.6270176014</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="C37" t="n">
-        <v>1698.6270176014</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>1698.6270176014</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W37" t="n">
-        <v>1698.6270176014</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X37" t="n">
-        <v>1698.6270176014</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="Y37" t="n">
-        <v>1698.6270176014</v>
+        <v>43.32097474015933</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.31465285444516</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C38" t="n">
-        <v>34.31465285444516</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D38" t="n">
-        <v>34.31465285444516</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E38" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F38" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887603007</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193752</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L38" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M38" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292789</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R38" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S38" t="n">
-        <v>1534.070518079133</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.723071164142</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U38" t="n">
-        <v>1063.162088944975</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V38" t="n">
-        <v>739.0410954003776</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="W38" t="n">
-        <v>397.731535980411</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="X38" t="n">
-        <v>34.31465285444516</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.31465285444516</v>
+        <v>1352.315759596293</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.31465285444516</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C39" t="n">
-        <v>34.31465285444516</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D39" t="n">
-        <v>34.31465285444516</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E39" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F39" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889813</v>
+        <v>112.3287381944638</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443595</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M39" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S39" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T39" t="n">
-        <v>1234.878304775051</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U39" t="n">
-        <v>995.3051791025982</v>
+        <v>1476.159517049806</v>
       </c>
       <c r="V39" t="n">
-        <v>752.2254610062323</v>
+        <v>1233.07979895344</v>
       </c>
       <c r="W39" t="n">
-        <v>482.8268917365236</v>
+        <v>963.6812296837312</v>
       </c>
       <c r="X39" t="n">
-        <v>263.31889735322</v>
+        <v>744.1732353004276</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.67820428854765</v>
+        <v>718.4979635217912</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="C40" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="D40" t="n">
-        <v>1715.732642722258</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E40" t="n">
-        <v>1715.732642722258</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G40" t="n">
-        <v>1562.091811424304</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.091811424304</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>978.9465481215775</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="C41" t="n">
-        <v>978.9465481215775</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
         <v>253.8975067193751</v>
@@ -7429,7 +7429,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.732642722258</v>
@@ -7438,25 +7438,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T41" t="n">
-        <v>1365.093585917992</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U41" t="n">
-        <v>1365.093585917992</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="V41" t="n">
-        <v>1365.093585917992</v>
+        <v>1033.545200741551</v>
       </c>
       <c r="W41" t="n">
-        <v>1365.093585917992</v>
+        <v>1033.545200741551</v>
       </c>
       <c r="X41" t="n">
-        <v>1365.093585917992</v>
+        <v>1033.545200741551</v>
       </c>
       <c r="Y41" t="n">
-        <v>978.9465481215775</v>
+        <v>647.3981629451371</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.31465285444516</v>
+        <v>318.2234714173694</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31465285444516</v>
+        <v>128.8111971503331</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444516</v>
+        <v>128.8111971503331</v>
       </c>
       <c r="E42" t="n">
         <v>34.31465285444516</v>
@@ -7490,25 +7490,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K42" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L42" t="n">
-        <v>317.2197849098233</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M42" t="n">
-        <v>692.1113944628848</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N42" t="n">
-        <v>1095.345158962896</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1408.47819300979</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1637.71855738224</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7523,19 +7523,19 @@
         <v>1234.878304775051</v>
       </c>
       <c r="U42" t="n">
-        <v>995.3051791025982</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="V42" t="n">
-        <v>752.2254610062323</v>
+        <v>991.7985866786855</v>
       </c>
       <c r="W42" t="n">
-        <v>482.8268917365236</v>
+        <v>722.4000174089769</v>
       </c>
       <c r="X42" t="n">
-        <v>263.31889735322</v>
+        <v>722.4000174089769</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.67820428854765</v>
+        <v>496.7593243443045</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
         <v>34.31465285444516</v>
@@ -7572,49 +7572,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V43" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.432552822484</v>
+        <v>542.8373206719534</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.432552822484</v>
+        <v>542.8373206719534</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.432552822484</v>
+        <v>542.8373206719534</v>
       </c>
       <c r="E44" t="n">
-        <v>863.2013285178008</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F44" t="n">
-        <v>455.9293591844538</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,25 +7648,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602976</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
         <v>1715.732642722258</v>
@@ -7678,22 +7678,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>920.7032200435023</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.732642722258</v>
+        <v>920.7032200435023</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.732642722258</v>
+        <v>920.7032200435023</v>
       </c>
       <c r="Y44" t="n">
-        <v>1616.298452194033</v>
+        <v>920.7032200435023</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>837.9892995535727</v>
+        <v>867.9669970985514</v>
       </c>
       <c r="C45" t="n">
-        <v>648.5770252865364</v>
+        <v>678.5547228315151</v>
       </c>
       <c r="D45" t="n">
-        <v>487.7969090475681</v>
+        <v>517.7746065925468</v>
       </c>
       <c r="E45" t="n">
-        <v>314.2337051689825</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F45" t="n">
-        <v>153.8059888862266</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G45" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
         <v>34.31465285444516</v>
@@ -7727,52 +7727,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>498.4142537443595</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M45" t="n">
-        <v>873.305863297421</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N45" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440572</v>
+        <v>1665.22410575568</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007117</v>
+        <v>1486.149836322224</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775051</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775051</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="W45" t="n">
-        <v>1016.525152480508</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="X45" t="n">
-        <v>1016.525152480508</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="Y45" t="n">
-        <v>1016.525152480508</v>
+        <v>1046.502850025486</v>
       </c>
     </row>
     <row r="46">
@@ -7809,40 +7809,40 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>334.857675380022</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U46" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V46" t="n">
-        <v>43.32097474015927</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W46" t="n">
         <v>34.31465285444516</v>
@@ -8777,10 +8777,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489842002</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.40936639976319</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
@@ -9017,13 +9017,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>226.6888734850222</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882571</v>
       </c>
       <c r="Q15" t="n">
         <v>44.67636752131756</v>
@@ -9245,10 +9245,10 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K18" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>227.6529352291875</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
@@ -9257,13 +9257,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913207</v>
+        <v>171.2977978017202</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.40936639976319</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372882</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9497,10 +9497,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>122.4388889890789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131756</v>
+        <v>44.6763675213176</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,13 +9716,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>156.3795586670407</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
@@ -9731,13 +9731,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
-        <v>255.2227828913207</v>
+        <v>171.2977978017195</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,13 +9953,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>61.40936639976321</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>64.9258437355286</v>
+        <v>44.62821923470651</v>
       </c>
       <c r="M27" t="n">
         <v>301.77688131</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.40936639976321</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>8.646382090491699</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674432</v>
       </c>
       <c r="Q30" t="n">
-        <v>123.478473925376</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455086</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>114.937534052688</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,13 +10664,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>61.40936639976321</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K36" t="n">
-        <v>87.4484884945505</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3045437566416</v>
+        <v>156.379558667041</v>
       </c>
       <c r="M36" t="n">
         <v>301.77688131</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131759</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455086</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526879</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11062,7 +11062,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461149</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
@@ -11077,7 +11077,7 @@
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>208.5255628951206</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11138,16 +11138,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880646</v>
       </c>
       <c r="N42" t="n">
         <v>310.6138585746227</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>123.4784739253762</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11387,7 +11387,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>206.3912489842007</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23272,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.2279527599906</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.1639724458418</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>22.17436195575323</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>41.43086428855887</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>155.8423991568166</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23433,13 +23433,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>155.7061618107479</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>171.7556116853854</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23506,10 +23506,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>160.5169949585629</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>35.94332020513034</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23563,7 +23563,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>77.51353528374514</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>32.74383514156548</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>155.7061618107479</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23706,7 +23706,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>140.6060777145541</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23721,7 +23721,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>14.504932917026</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.92171018018141</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>97.29219807573524</v>
+        <v>166.1250248070417</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
-        <v>147.6489937016422</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
         <v>288.6213336334641</v>
@@ -23952,10 +23952,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972567</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>127.7680728187559</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>64.68131458594155</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -24037,7 +24037,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24056,19 +24056,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>155.4935232001664</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>67.9726406775933</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0550137836253</v>
+        <v>160.8281285726397</v>
       </c>
       <c r="H22" t="n">
         <v>160.0829940331247</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706151</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
         <v>224.1841888012565</v>
@@ -24189,10 +24189,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>98.77605502823246</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
         <v>217.1412728141684</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>6.01056293183035</v>
       </c>
       <c r="S23" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>75.91483829007018</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
         <v>250.0353723969745</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>51.31040430107403</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>68.41332928649308</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24375,19 +24375,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>1.472283951250148</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S25" t="n">
         <v>224.1841888012565</v>
@@ -24420,7 +24420,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>165.4779332534541</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24448,19 +24448,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>346.4868448174512</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>207.0534928655477</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>24.89557522678056</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>53.67837733441091</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
         <v>174.3941919203111</v>
@@ -24657,10 +24657,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224783</v>
       </c>
       <c r="V28" t="n">
-        <v>237.8821299734642</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>192.4186871965224</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
         <v>417.3985592667085</v>
@@ -24700,7 +24700,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>39.67155311461028</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>13.91698102153262</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>210.1326658478776</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>9.444303701750869</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H31" t="n">
         <v>160.0829940331247</v>
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24897,7 +24897,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>171.7556116853853</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -24925,19 +24925,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>176.2222612500584</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>88.66179537720072</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>36.86529805767208</v>
       </c>
       <c r="C33" t="n">
-        <v>184.1882356046044</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25016,7 +25016,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>68.32273771316049</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>15.78348183843659</v>
       </c>
       <c r="G34" t="n">
         <v>168.0550137836253</v>
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.5646915416044</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
         <v>185.5090622027478</v>
@@ -25204,7 +25204,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>107.0786041960848</v>
       </c>
       <c r="T35" t="n">
         <v>216.1639724458418</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>97.29219807573524</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>24.1662295071824</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>157.5409223051153</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>168.0550137836253</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25368,13 +25368,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>273.3761382196858</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>261.3428656717622</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25399,13 +25399,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>119.3167056202948</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>173.4205784779043</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
@@ -25490,7 +25490,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>197.9657670731756</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>160.6823517953186</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -25557,22 +25557,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.950590798651</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
         <v>160.0829940331247</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>104.9067250302757</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>168.1935152266061</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>173.4205784779043</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>78.27599298687061</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25727,7 +25727,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>160.8281285726395</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
         <v>174.3941919203111</v>
@@ -25842,13 +25842,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>281.3944484224782</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25873,13 +25873,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>271.2407205623165</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25918,13 +25918,13 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>283.8457187955066</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.89258593195634</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>50.53496280541341</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26046,7 +26046,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
-        <v>224.1841888012565</v>
+        <v>147.648993701642</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>281.3944484224784</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>573474.8614817461</v>
+        <v>573474.8614817462</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>573474.861481746</v>
+        <v>573474.8614817462</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>573474.8614817462</v>
+        <v>573474.8614817461</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>573474.8614817462</v>
+        <v>573474.8614817461</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>573474.861481746</v>
+        <v>573474.8614817462</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>573474.861481746</v>
+        <v>573474.8614817461</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>573474.861481746</v>
+        <v>573474.8614817461</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>573474.8614817461</v>
+        <v>573474.8614817462</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>573474.8614817462</v>
+        <v>573474.861481746</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573255.7968646991</v>
+        <v>573255.796864699</v>
       </c>
       <c r="C2" t="n">
-        <v>573255.7968646989</v>
+        <v>573255.7968646988</v>
       </c>
       <c r="D2" t="n">
-        <v>573255.796864699</v>
+        <v>573255.7968646992</v>
       </c>
       <c r="E2" t="n">
         <v>325600.7626641426</v>
       </c>
       <c r="F2" t="n">
-        <v>325600.7626641425</v>
+        <v>325600.7626641426</v>
       </c>
       <c r="G2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641424</v>
       </c>
       <c r="H2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641424</v>
       </c>
       <c r="I2" t="n">
         <v>325600.7626641424</v>
@@ -26340,13 +26340,13 @@
         <v>325600.7626641425</v>
       </c>
       <c r="K2" t="n">
-        <v>325600.7626641423</v>
+        <v>325600.7626641424</v>
       </c>
       <c r="L2" t="n">
+        <v>325600.7626641426</v>
+      </c>
+      <c r="M2" t="n">
         <v>325600.7626641425</v>
-      </c>
-      <c r="M2" t="n">
-        <v>325600.7626641423</v>
       </c>
       <c r="N2" t="n">
         <v>325600.7626641425</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174925</v>
+        <v>497053.1518174924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="C4" t="n">
         <v>403791.6199395953</v>
       </c>
       <c r="D4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="E4" t="n">
         <v>22779.9226089727</v>
       </c>
       <c r="F4" t="n">
-        <v>22779.92260897271</v>
+        <v>22779.9226089727</v>
       </c>
       <c r="G4" t="n">
         <v>22779.9226089727</v>
@@ -26447,19 +26447,19 @@
         <v>22779.9226089727</v>
       </c>
       <c r="L4" t="n">
-        <v>22779.9226089727</v>
+        <v>22779.92260897271</v>
       </c>
       <c r="M4" t="n">
         <v>22779.9226089727</v>
       </c>
       <c r="N4" t="n">
-        <v>22779.9226089727</v>
+        <v>22779.92260897271</v>
       </c>
       <c r="O4" t="n">
         <v>22779.9226089727</v>
       </c>
       <c r="P4" t="n">
-        <v>22779.92260897271</v>
+        <v>22779.9226089727</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="F5" t="n">
         <v>36091.33751189046</v>
@@ -26487,28 +26487,28 @@
         <v>36091.33751189046</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135836.5769251038</v>
+        <v>135791.9130830519</v>
       </c>
       <c r="C6" t="n">
-        <v>135836.5769251036</v>
+        <v>135791.9130830516</v>
       </c>
       <c r="D6" t="n">
-        <v>135836.5769251037</v>
+        <v>135791.9130830521</v>
       </c>
       <c r="E6" t="n">
-        <v>-230323.6492742131</v>
+        <v>-239893.5067393632</v>
       </c>
       <c r="F6" t="n">
-        <v>266729.5025432794</v>
+        <v>257159.6450781293</v>
       </c>
       <c r="G6" t="n">
-        <v>266729.5025432794</v>
+        <v>257159.645078129</v>
       </c>
       <c r="H6" t="n">
-        <v>266729.5025432794</v>
+        <v>257159.645078129</v>
       </c>
       <c r="I6" t="n">
-        <v>266729.5025432793</v>
+        <v>257159.6450781288</v>
       </c>
       <c r="J6" t="n">
-        <v>266729.5025432794</v>
+        <v>257159.6450781292</v>
       </c>
       <c r="K6" t="n">
-        <v>266729.5025432791</v>
+        <v>257159.645078129</v>
       </c>
       <c r="L6" t="n">
-        <v>266729.5025432793</v>
+        <v>257159.6450781292</v>
       </c>
       <c r="M6" t="n">
-        <v>159837.6431690397</v>
+        <v>150267.7857038898</v>
       </c>
       <c r="N6" t="n">
-        <v>266729.5025432793</v>
+        <v>257159.6450781291</v>
       </c>
       <c r="O6" t="n">
-        <v>266729.5025432794</v>
+        <v>257159.6450781293</v>
       </c>
       <c r="P6" t="n">
-        <v>266729.5025432793</v>
+        <v>257159.645078129</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
+        <v>459.2752909409235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>459.2752909409237</v>
+      </c>
+      <c r="J3" t="n">
         <v>459.2752909409236</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>459.2752909409236</v>
       </c>
-      <c r="J3" t="n">
-        <v>459.2752909409235</v>
-      </c>
-      <c r="K3" t="n">
-        <v>459.2752909409235</v>
-      </c>
       <c r="L3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>428.9331606805646</v>
@@ -26807,25 +26807,25 @@
         <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="O4" t="n">
         <v>428.9331606805645</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K11" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M11" t="n">
         <v>324.1998891675596</v>
@@ -31776,10 +31776,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q11" t="n">
         <v>199.3831741692328</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433152</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31852,10 +31852,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O12" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,13 +31864,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U12" t="n">
         <v>0.06499178645390431</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315141</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,16 +31940,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R13" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U13" t="n">
         <v>0.0451746187810745</v>
@@ -32466,43 +32466,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L20" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O20" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R20" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584442</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146302</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420992</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L21" t="n">
         <v>214.4945592267021</v>
@@ -32563,28 +32563,28 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953381</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O21" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q21" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R22" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,43 +32703,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O23" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,19 +32888,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,43 +32940,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N26" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P26" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T26" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33037,10 +33037,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O27" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P27" t="n">
         <v>188.640826575339</v>
@@ -33049,16 +33049,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M28" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N28" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O28" t="n">
         <v>117.0624954680243</v>
@@ -33125,19 +33125,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N29" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T29" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33274,10 +33274,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O30" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P30" t="n">
         <v>188.640826575339</v>
@@ -33286,16 +33286,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M31" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N31" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O31" t="n">
         <v>117.0624954680243</v>
@@ -33362,19 +33362,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N32" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P32" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T32" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33511,10 +33511,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O33" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P33" t="n">
         <v>188.640826575339</v>
@@ -33523,16 +33523,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M34" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N34" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O34" t="n">
         <v>117.0624954680243</v>
@@ -33599,19 +33599,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,43 +33651,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N35" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P35" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T35" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33748,10 +33748,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O36" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P36" t="n">
         <v>188.640826575339</v>
@@ -33760,16 +33760,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M37" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N37" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O37" t="n">
         <v>117.0624954680243</v>
@@ -33836,19 +33836,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,43 +33888,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L38" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N38" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O38" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P38" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R38" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T38" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H39" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I39" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
@@ -33985,10 +33985,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N39" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O39" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P39" t="n">
         <v>188.640826575339</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S39" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I40" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M40" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N40" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O40" t="n">
         <v>117.0624954680243</v>
@@ -34073,19 +34073,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R40" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,43 +34125,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K41" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L41" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N41" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O41" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P41" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R41" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S41" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T41" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U41" t="n">
         <v>0.1477066262322567</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I42" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L42" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M42" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N42" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O42" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P42" t="n">
         <v>188.640826575339</v>
@@ -34234,16 +34234,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S42" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
         <v>123.1309525909486</v>
@@ -34301,7 +34301,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N43" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O43" t="n">
         <v>117.0624954680243</v>
@@ -34310,19 +34310,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R43" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K44" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L44" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N44" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O44" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P44" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R44" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S44" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T44" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U44" t="n">
         <v>0.1477066262322567</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I45" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L45" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M45" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N45" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O45" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P45" t="n">
         <v>188.640826575339</v>
@@ -34471,16 +34471,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R45" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S45" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
         <v>123.1309525909486</v>
@@ -34538,7 +34538,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N46" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O46" t="n">
         <v>117.0624954680243</v>
@@ -34547,19 +34547,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R46" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
@@ -35424,13 +35424,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082174</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
-        <v>183.002068966006</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.3068328282941</v>
+        <v>303.0842232378716</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M13" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P13" t="n">
         <v>19.62327613144092</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K15" t="n">
         <v>162.7270914936593</v>
@@ -35737,13 +35737,13 @@
         <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>323.3818477386936</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085354</v>
+        <v>127.3333140181132</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>273.1111511244432</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
         <v>378.678393487941</v>
@@ -35977,13 +35977,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>232.3710088971611</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323709</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M21" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N21" t="n">
-        <v>407.3068328282941</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P21" t="n">
-        <v>147.630938518935</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M22" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N22" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>201.8377745622963</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867616</v>
+        <v>232.3710088971604</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M25" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L26" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P26" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K27" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
-        <v>110.3840596307842</v>
+        <v>90.08643512996213</v>
       </c>
       <c r="M27" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151262</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P29" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M30" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>231.5559236085354</v>
+        <v>35.87959908660044</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.80210640405838</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P32" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405919</v>
       </c>
       <c r="L33" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
-        <v>211.6305083063593</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P35" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>78.8021064040588</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
-        <v>285.7627596518971</v>
+        <v>201.8377745622966</v>
       </c>
       <c r="M36" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405919</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063593</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M40" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P40" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P41" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422083</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6783934879409</v>
+        <v>183.0020689660056</v>
       </c>
       <c r="N42" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.80210640405862</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P44" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M45" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>303.084223237872</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
